--- a/Excel_Test_Data/Inventory_Test_Data.xlsx
+++ b/Excel_Test_Data/Inventory_Test_Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6816E-FFFC-406B-98A2-143F85CD7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>FieldName</t>
   </si>
@@ -134,15 +135,9 @@
     <t>CAPS</t>
   </si>
   <si>
-    <t>HisPassword@1234</t>
-  </si>
-  <si>
     <t>Direct Receipt</t>
   </si>
   <si>
-    <t>A-3- OT Pharmacy 3F</t>
-  </si>
-  <si>
     <t>SURG2940</t>
   </si>
   <si>
@@ -161,36 +156,139 @@
     <t>SURG2943</t>
   </si>
   <si>
-    <t>1/4 X 1/4 STRAIGHT CONNECTOR</t>
-  </si>
-  <si>
-    <t>1/4 X 1/4 X 1/4 LUER LOCK CONNECTOR</t>
-  </si>
-  <si>
-    <t>1/4 X 1/4 X 1/4 Y CONNECTOR</t>
-  </si>
-  <si>
-    <t>1/4 X 3/16 STRAIGHT CONNECTOR</t>
-  </si>
-  <si>
-    <t>ZYNESP 40MCG INJ</t>
-  </si>
-  <si>
-    <t>ZYROP 5000 IU INJ</t>
-  </si>
-  <si>
     <t>Indent Items</t>
   </si>
   <si>
     <t>Search_Option</t>
+  </si>
+  <si>
+    <t>His@1234</t>
+  </si>
+  <si>
+    <t>AMIODON 150MG INJ 3ML</t>
+  </si>
+  <si>
+    <t>DEXTROSE 10% 500ML</t>
+  </si>
+  <si>
+    <t>DILZEM-30MG-TAB</t>
+  </si>
+  <si>
+    <t>DOTAMIN-INJ</t>
+  </si>
+  <si>
+    <t>EPTOIN 2ML INJ</t>
+  </si>
+  <si>
+    <t>GLUCI -10ML- INJ</t>
+  </si>
+  <si>
+    <t>KETOROL INJ</t>
+  </si>
+  <si>
+    <t>LEVOLIN 0.63 RESPULES</t>
+  </si>
+  <si>
+    <t>MAGNEON-INJ</t>
+  </si>
+  <si>
+    <t>MICROPORE -2 INCH PLASTER</t>
+  </si>
+  <si>
+    <t>MICROPORE -3 INCH PLASTER</t>
+  </si>
+  <si>
+    <t>NORAD-2ML-INJ</t>
+  </si>
+  <si>
+    <t>TEGADERM -1635- 8.5CM X 10.5CM</t>
+  </si>
+  <si>
+    <t>TEGADERM HP PAD- 8590 -9CM X 20CM</t>
+  </si>
+  <si>
+    <t>TRANSPORE 2 INCH-PLASTER</t>
+  </si>
+  <si>
+    <t>TRANSPORE 3 INCH-PLASTER</t>
+  </si>
+  <si>
+    <t>TROPINE 1ML INJ</t>
+  </si>
+  <si>
+    <t>VASOCON- 1ML -AMP</t>
+  </si>
+  <si>
+    <t>8D61K011</t>
+  </si>
+  <si>
+    <t>V628015D</t>
+  </si>
+  <si>
+    <t>V628027</t>
+  </si>
+  <si>
+    <t>APG0041</t>
+  </si>
+  <si>
+    <t>APH0059DPC</t>
+  </si>
+  <si>
+    <t>APJ0007</t>
+  </si>
+  <si>
+    <t>APJ0033</t>
+  </si>
+  <si>
+    <t>KP1169604</t>
+  </si>
+  <si>
+    <t>V230710</t>
+  </si>
+  <si>
+    <t>L830047</t>
+  </si>
+  <si>
+    <t>KP370125</t>
+  </si>
+  <si>
+    <t>R06230514</t>
+  </si>
+  <si>
+    <t>R06230512</t>
+  </si>
+  <si>
+    <t>KP247211</t>
+  </si>
+  <si>
+    <t>R06230926</t>
+  </si>
+  <si>
+    <t>R11220912</t>
+  </si>
+  <si>
+    <t>R05230518</t>
+  </si>
+  <si>
+    <t>R02230518</t>
+  </si>
+  <si>
+    <t>KM038062</t>
+  </si>
+  <si>
+    <t>KP85349</t>
+  </si>
+  <si>
+    <t>A-9-NS 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\/mmm\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -693,7 +791,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -702,32 +800,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1049,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,9 +1172,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10013887</v>
-      </c>
-      <c r="D3" s="6">
+        <v>10014231</v>
+      </c>
+      <c r="D3" s="2">
         <v>10013887</v>
       </c>
     </row>
@@ -1097,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -1105,21 +1191,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{9747AF77-C317-4A2D-B027-9E09C2817A36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,11 +1226,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1160,8 +1246,8 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
+      <c r="B4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1187,11 +1273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,1260 +1307,1380 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1302058</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2225117</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="11">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="11">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>19103279</v>
-      </c>
-      <c r="E2" s="11">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
-        <v>23061509</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="11">
+        <v>46874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="11">
+        <v>46874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="11">
+        <v>46631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="11">
         <v>46143</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>18040272</v>
-      </c>
-      <c r="E4" s="11">
-        <v>46296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>17071762</v>
-      </c>
-      <c r="E5" s="11">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>22103694</v>
-      </c>
-      <c r="E6" s="11">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="11">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="11">
+        <v>46753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="11">
+        <v>46844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
-        <v>24040245</v>
-      </c>
-      <c r="E7" s="11">
-        <v>46447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20112604</v>
-      </c>
-      <c r="E8" s="11">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11"/>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="11">
+        <v>46844</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="11"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="11"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="11"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="11"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="11"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="11"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="11"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="11"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="11"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="11"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="5"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="11"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="5"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="11"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="5"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="5"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="11"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="5"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="5"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="5"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="11"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="5"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="11"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="5"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="11"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="5"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="11"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="5"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="5"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="11"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="5"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="11"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="5"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="11"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="5"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="11"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="5"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="11"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="5"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="11"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="11"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="5"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="5"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="11"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="11"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="5"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="11"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="11"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="5"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="11"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="5"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="11"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="5"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="11"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="5"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="11"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="5"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="11"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="5"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="11"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="5"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="11"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="5"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="11"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="11"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="11"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="11"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="11"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="11"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="11"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="11"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="11"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="5"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="11"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="11"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="5"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="11"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="5"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="11"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="5"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="11"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="5"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="11"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="5"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="11"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="5"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="11"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="5"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="11"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="5"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="11"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="11"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="11"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="5"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="11"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="5"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="11"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="5"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="11"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="5"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="11"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="5"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="11"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="5"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="11"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="5"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="11"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="5"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="11"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="5"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="11"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="5"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="11"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="11"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="11"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="7"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="11"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="7"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="11"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="7"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="5"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="11"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="5"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="11"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="5"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="11"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="7"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="5"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="11"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="5"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="11"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="5"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="11"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="5"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="11"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="7"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="5"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="11"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="7"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="11"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="7"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="11"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="7"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="5"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="11"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="5"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="11"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="7"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="5"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="11"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="5"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="11"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="7"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="5"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="11"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="5"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="11"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="5"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="E155" s="11"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="5"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="11"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="7"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="5"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="11"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="7"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="7"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="11"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="7"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="7"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="11"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="7"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="11"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="11"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B162" s="7"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="11"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="7"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="11"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="11"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="11"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="11"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="7"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="7"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="11"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="5"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="11"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="7"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="5"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="11"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="5"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="11"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="7"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="5"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="11"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="5"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="11"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="7"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="5"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="11"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="7"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="5"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="11"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="7"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="5"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="11"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="5"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="11"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="7"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="5"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="11"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="7"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="5"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="11"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="7"/>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="5"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="11"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="7"/>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="5"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="11"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="7"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="5"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="11"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="7"/>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="5"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="11"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="7"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="5"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="11"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="7"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="5"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="11"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="7"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="5"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="11"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="7"/>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="5"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="11"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="7"/>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="5"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="11"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="7"/>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="5"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="11"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="7"/>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="5"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="11"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="5"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="11"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="5"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="11"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="5"/>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="11"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2483,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,7 +2733,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
@@ -2543,7 +2749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2556,7 +2762,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2572,7 +2778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2581,12 +2787,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -2594,11 +2800,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>51</v>
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
